--- a/data/trans_orig/IP18A01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP18A01-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3E95658-BD5D-4C16-8235-B5BADA3157E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44A40EBF-3EDA-4961-8481-6AB678324DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{23DEC88F-7724-44F4-9F12-B078C5227C64}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{76D88B40-F132-4121-AD49-FF5262D25801}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="302">
   <si>
     <t>Menores según su última visita al médico fue por vacunación en 2007 (Tasa respuesta: 87,02%)</t>
   </si>
@@ -104,835 +104,847 @@
     <t>7,38%</t>
   </si>
   <si>
-    <t>3,7%</t>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por vacunación en 2012 (Tasa respuesta: 93,38%)</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
   </si>
   <si>
     <t>13,68%</t>
   </si>
   <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
   </si>
   <si>
     <t>86,32%</t>
   </si>
   <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por vacunación en 2016 (Tasa respuesta: 90,4%)</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
   </si>
   <si>
     <t>7,76%</t>
   </si>
   <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
   </si>
   <si>
     <t>92,24%</t>
   </si>
   <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
+    <t>90,93%</t>
   </si>
   <si>
     <t>89,48%</t>
   </si>
   <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por vacunación en 2012 (Tasa respuesta: 93,38%)</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por vacunación en 2015 (Tasa respuesta: 90,4%)</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
     <t>Menores según su última visita al médico fue por vacunación en 2023 (Tasa respuesta: 17,76%)</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>36,98%</t>
+    <t>31,35%</t>
   </si>
   <si>
     <t>18,44%</t>
   </si>
   <si>
-    <t>52,43%</t>
+    <t>55,7%</t>
   </si>
   <si>
     <t>11,57%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
   </si>
   <si>
     <t>93,54%</t>
   </si>
   <si>
-    <t>63,02%</t>
+    <t>68,65%</t>
   </si>
   <si>
     <t>81,56%</t>
   </si>
   <si>
-    <t>47,57%</t>
+    <t>44,3%</t>
   </si>
   <si>
     <t>88,43%</t>
   </si>
   <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
   </si>
   <si>
     <t>3,66%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
   </si>
   <si>
     <t>7,08%</t>
   </si>
   <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
   </si>
   <si>
     <t>5,13%</t>
   </si>
   <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
   </si>
   <si>
     <t>96,34%</t>
   </si>
   <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
   </si>
   <si>
     <t>92,92%</t>
   </si>
   <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
   </si>
   <si>
     <t>94,87%</t>
   </si>
   <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
   </si>
   <si>
     <t>4,87%</t>
   </si>
   <si>
-    <t>18,71%</t>
+    <t>17,55%</t>
   </si>
   <si>
     <t>5,11%</t>
   </si>
   <si>
-    <t>18,33%</t>
+    <t>18,6%</t>
   </si>
   <si>
     <t>4,99%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
   </si>
   <si>
     <t>95,13%</t>
   </si>
   <si>
-    <t>81,29%</t>
+    <t>82,45%</t>
   </si>
   <si>
     <t>94,89%</t>
   </si>
   <si>
-    <t>81,67%</t>
+    <t>81,4%</t>
   </si>
   <si>
     <t>95,01%</t>
   </si>
   <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>1,93%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
   </si>
   <si>
     <t>7,29%</t>
   </si>
   <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
   </si>
   <si>
     <t>5,53%</t>
   </si>
   <si>
-    <t>3,45%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
   </si>
   <si>
     <t>95,86%</t>
   </si>
   <si>
-    <t>98,07%</t>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
   </si>
   <si>
     <t>92,71%</t>
   </si>
   <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
   </si>
   <si>
     <t>94,47%</t>
   </si>
   <si>
-    <t>96,55%</t>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
   </si>
 </sst>
 </file>
@@ -1344,7 +1356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7034F3F2-4E26-416A-97F5-6AA0EEAAA8B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F371C0-189E-400B-B424-2ABE9F1C2DDA}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2245,7 +2257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0AB25E-1F1D-4218-BDD6-D9629F5FD96B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3F40EA-5FFE-4D65-90D2-DB3D3B4F7299}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3004,7 +3016,7 @@
         <v>154</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="M16" s="7">
         <v>191</v>
@@ -3013,13 +3025,13 @@
         <v>135927</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,13 +3046,13 @@
         <v>636842</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H17" s="7">
         <v>862</v>
@@ -3049,28 +3061,28 @@
         <v>598696</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M17" s="7">
         <v>1769</v>
       </c>
       <c r="N17" s="7">
-        <v>1235539</v>
+        <v>1235538</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,7 +3124,7 @@
         <v>1960</v>
       </c>
       <c r="N18" s="7">
-        <v>1371466</v>
+        <v>1371465</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>18</v>
@@ -3146,7 +3158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C4DA8F-C276-4DCC-950A-31C2BD9800F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD629A87-CDAD-4CAA-AF6D-ED7A298AE72F}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3163,7 +3175,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3407,13 +3419,13 @@
         <v>4450</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -3422,13 +3434,13 @@
         <v>2905</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -3437,13 +3449,13 @@
         <v>7354</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,13 +3470,13 @@
         <v>57615</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>175</v>
+        <v>72</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H8" s="7">
         <v>78</v>
@@ -3473,13 +3485,13 @@
         <v>51755</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M8" s="7">
         <v>160</v>
@@ -3488,13 +3500,13 @@
         <v>109371</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>110</v>
+        <v>182</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,13 +3574,13 @@
         <v>34652</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -3577,13 +3589,13 @@
         <v>48148</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M10" s="7">
         <v>120</v>
@@ -3592,13 +3604,13 @@
         <v>82800</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,13 +3625,13 @@
         <v>401286</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H11" s="7">
         <v>584</v>
@@ -3628,13 +3640,13 @@
         <v>384877</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M11" s="7">
         <v>1156</v>
@@ -3643,13 +3655,13 @@
         <v>786163</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,13 +3729,13 @@
         <v>19520</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -3732,13 +3744,13 @@
         <v>9195</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
@@ -3747,13 +3759,13 @@
         <v>28715</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,13 +3780,13 @@
         <v>152157</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H14" s="7">
         <v>215</v>
@@ -3783,13 +3795,13 @@
         <v>143465</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M14" s="7">
         <v>435</v>
@@ -3798,13 +3810,13 @@
         <v>295622</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,13 +3884,13 @@
         <v>58621</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H16" s="7">
         <v>88</v>
@@ -3887,13 +3899,13 @@
         <v>60248</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M16" s="7">
         <v>171</v>
@@ -3902,13 +3914,13 @@
         <v>118869</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>226</v>
+        <v>139</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,13 +3935,13 @@
         <v>611059</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H17" s="7">
         <v>877</v>
@@ -3938,13 +3950,13 @@
         <v>580097</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M17" s="7">
         <v>1751</v>
@@ -3953,13 +3965,13 @@
         <v>1191156</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>236</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,7 +4047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F582C69-88A3-4636-8476-69252B5E9496}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE281BD2-2902-4B7A-B911-4DF17C946BB3}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4767,7 +4779,7 @@
         <v>285</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>20</v>
+        <v>286</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -4776,13 +4788,13 @@
         <v>7280</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -4791,13 +4803,13 @@
         <v>12518</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4812,13 +4824,13 @@
         <v>121187</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>29</v>
+        <v>294</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H17" s="7">
         <v>141</v>
@@ -4827,13 +4839,13 @@
         <v>92643</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M17" s="7">
         <v>319</v>
@@ -4842,13 +4854,13 @@
         <v>213830</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP18A01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP18A01-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44A40EBF-3EDA-4961-8481-6AB678324DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3CA50D1-1B36-47A8-9D4B-AB6E359CDB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{76D88B40-F132-4121-AD49-FF5262D25801}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FCCB1DF1-BD1A-42D4-B14E-EF0024607126}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="287">
   <si>
     <t>Menores según su última visita al médico fue por vacunación en 2007 (Tasa respuesta: 87,02%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,883 +68,838 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por vacunación en 2012 (Tasa respuesta: 93,38%)</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por vacunación en 2016 (Tasa respuesta: 90,4%)</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por vacunación en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
   </si>
   <si>
     <t>5,39%</t>
   </si>
   <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
   </si>
   <si>
     <t>94,61%</t>
   </si>
   <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por vacunación en 2012 (Tasa respuesta: 93,38%)</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por vacunación en 2016 (Tasa respuesta: 90,4%)</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por vacunación en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
   </si>
 </sst>
 </file>
@@ -1356,8 +1311,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F371C0-189E-400B-B424-2ABE9F1C2DDA}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391C5C8D-DF53-4653-9E02-634F330B47EA}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1474,10 +1429,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>8179</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1489,81 +1444,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5469</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>13648</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>63218</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="I5" s="7">
+        <v>68587</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>197</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>131805</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1572,151 +1531,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>71397</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>111</v>
+      </c>
+      <c r="I6" s="7">
+        <v>74056</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>217</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>145453</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D7" s="7">
-        <v>5469</v>
+        <v>26747</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I7" s="7">
-        <v>8179</v>
+        <v>32907</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="N7" s="7">
-        <v>13648</v>
+        <v>59654</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>103</v>
+        <v>521</v>
       </c>
       <c r="D8" s="7">
-        <v>68587</v>
+        <v>345579</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>94</v>
+        <v>568</v>
       </c>
       <c r="I8" s="7">
-        <v>63218</v>
+        <v>376404</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>197</v>
+        <v>1089</v>
       </c>
       <c r="N8" s="7">
-        <v>131805</v>
+        <v>721983</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1725,153 +1686,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>111</v>
+        <v>561</v>
       </c>
       <c r="D9" s="7">
-        <v>74056</v>
+        <v>372326</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>106</v>
+        <v>618</v>
       </c>
       <c r="I9" s="7">
-        <v>71397</v>
+        <v>409311</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>217</v>
+        <v>1179</v>
       </c>
       <c r="N9" s="7">
-        <v>145453</v>
+        <v>781637</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7">
-        <v>32907</v>
+        <v>16201</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I10" s="7">
-        <v>26747</v>
+        <v>13810</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="N10" s="7">
-        <v>59654</v>
+        <v>30011</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>568</v>
+        <v>200</v>
       </c>
       <c r="D11" s="7">
-        <v>376404</v>
+        <v>138093</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>521</v>
+        <v>189</v>
       </c>
       <c r="I11" s="7">
-        <v>345579</v>
+        <v>126111</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1089</v>
+        <v>389</v>
       </c>
       <c r="N11" s="7">
-        <v>721983</v>
+        <v>264204</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1880,153 +1841,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>618</v>
+        <v>225</v>
       </c>
       <c r="D12" s="7">
-        <v>409311</v>
+        <v>154294</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>561</v>
+        <v>209</v>
       </c>
       <c r="I12" s="7">
-        <v>372326</v>
+        <v>139921</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1179</v>
+        <v>434</v>
       </c>
       <c r="N12" s="7">
-        <v>781637</v>
+        <v>294215</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D13" s="7">
-        <v>13810</v>
+        <v>51127</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="I13" s="7">
-        <v>16201</v>
+        <v>52186</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="N13" s="7">
-        <v>30011</v>
+        <v>103313</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>189</v>
+        <v>815</v>
       </c>
       <c r="D14" s="7">
-        <v>126111</v>
+        <v>546891</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H14" s="7">
-        <v>200</v>
+        <v>860</v>
       </c>
       <c r="I14" s="7">
-        <v>138093</v>
+        <v>571102</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
-        <v>389</v>
+        <v>1675</v>
       </c>
       <c r="N14" s="7">
-        <v>264204</v>
+        <v>1117993</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2035,216 +1996,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>209</v>
+        <v>892</v>
       </c>
       <c r="D15" s="7">
-        <v>139921</v>
+        <v>598018</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>225</v>
+        <v>938</v>
       </c>
       <c r="I15" s="7">
-        <v>154294</v>
+        <v>623288</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>434</v>
+        <v>1830</v>
       </c>
       <c r="N15" s="7">
-        <v>294215</v>
+        <v>1221306</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>78</v>
-      </c>
-      <c r="D16" s="7">
-        <v>52186</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7">
-        <v>77</v>
-      </c>
-      <c r="I16" s="7">
-        <v>51127</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="7">
-        <v>155</v>
-      </c>
-      <c r="N16" s="7">
-        <v>103313</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>861</v>
-      </c>
-      <c r="D17" s="7">
-        <v>571828</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="A16" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" s="7">
-        <v>815</v>
-      </c>
-      <c r="I17" s="7">
-        <v>546891</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1676</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1118719</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>939</v>
-      </c>
-      <c r="D18" s="7">
-        <v>624014</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>892</v>
-      </c>
-      <c r="I18" s="7">
-        <v>598018</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1831</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1222032</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2257,8 +2062,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3F40EA-5FFE-4D65-90D2-DB3D3B4F7299}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF9F35E-CE5D-49B6-826E-592D8C41909B}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2274,7 +2079,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2375,96 +2180,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7">
-        <v>641</v>
+        <v>9272</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="I4" s="7">
+        <v>8066</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="N4" s="7">
-        <v>641</v>
+        <v>17338</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>77422</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="I5" s="7">
+        <v>68920</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>146342</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2473,151 +2282,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>86694</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>108</v>
+      </c>
+      <c r="I6" s="7">
+        <v>76986</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>233</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>163680</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="D7" s="7">
-        <v>8066</v>
+        <v>38620</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="H7" s="7">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="I7" s="7">
-        <v>9272</v>
+        <v>46922</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M7" s="7">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="N7" s="7">
-        <v>17338</v>
+        <v>85542</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>98</v>
+        <v>554</v>
       </c>
       <c r="D8" s="7">
-        <v>68920</v>
+        <v>382425</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
-        <v>112</v>
+        <v>599</v>
       </c>
       <c r="I8" s="7">
-        <v>77422</v>
+        <v>419410</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
-        <v>210</v>
+        <v>1153</v>
       </c>
       <c r="N8" s="7">
-        <v>146342</v>
+        <v>801835</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2626,153 +2437,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>108</v>
+        <v>610</v>
       </c>
       <c r="D9" s="7">
-        <v>76986</v>
+        <v>421045</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>125</v>
+        <v>665</v>
       </c>
       <c r="I9" s="7">
-        <v>86694</v>
+        <v>466332</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>233</v>
+        <v>1275</v>
       </c>
       <c r="N9" s="7">
-        <v>163680</v>
+        <v>887377</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="D10" s="7">
-        <v>46922</v>
+        <v>17216</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I10" s="7">
-        <v>38620</v>
+        <v>15190</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="N10" s="7">
-        <v>85542</v>
+        <v>32406</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>599</v>
+        <v>196</v>
       </c>
       <c r="D11" s="7">
-        <v>419410</v>
+        <v>138850</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
-        <v>554</v>
+        <v>210</v>
       </c>
       <c r="I11" s="7">
-        <v>382425</v>
+        <v>148512</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
-        <v>1153</v>
+        <v>406</v>
       </c>
       <c r="N11" s="7">
-        <v>801835</v>
+        <v>287361</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,153 +2592,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>665</v>
+        <v>220</v>
       </c>
       <c r="D12" s="7">
-        <v>466332</v>
+        <v>156066</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>610</v>
+        <v>231</v>
       </c>
       <c r="I12" s="7">
-        <v>421045</v>
+        <v>163702</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1275</v>
+        <v>451</v>
       </c>
       <c r="N12" s="7">
-        <v>887377</v>
+        <v>319767</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="D13" s="7">
-        <v>15190</v>
+        <v>65108</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="I13" s="7">
-        <v>17216</v>
+        <v>70178</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="N13" s="7">
-        <v>32406</v>
+        <v>135286</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>210</v>
+        <v>862</v>
       </c>
       <c r="D14" s="7">
-        <v>148512</v>
+        <v>598696</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="H14" s="7">
-        <v>196</v>
+        <v>907</v>
       </c>
       <c r="I14" s="7">
-        <v>138850</v>
+        <v>636842</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="M14" s="7">
-        <v>406</v>
+        <v>1769</v>
       </c>
       <c r="N14" s="7">
-        <v>287361</v>
+        <v>1235538</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,216 +2747,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>231</v>
+        <v>955</v>
       </c>
       <c r="D15" s="7">
-        <v>163702</v>
+        <v>663804</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>220</v>
+        <v>1004</v>
       </c>
       <c r="I15" s="7">
-        <v>156066</v>
+        <v>707020</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>451</v>
+        <v>1959</v>
       </c>
       <c r="N15" s="7">
-        <v>319767</v>
+        <v>1370824</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>98</v>
-      </c>
-      <c r="D16" s="7">
-        <v>70819</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H16" s="7">
-        <v>93</v>
-      </c>
-      <c r="I16" s="7">
-        <v>65108</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M16" s="7">
-        <v>191</v>
-      </c>
-      <c r="N16" s="7">
-        <v>135927</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>907</v>
-      </c>
-      <c r="D17" s="7">
-        <v>636842</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H17" s="7">
-        <v>862</v>
-      </c>
-      <c r="I17" s="7">
-        <v>598696</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1769</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1235538</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1005</v>
-      </c>
-      <c r="D18" s="7">
-        <v>707661</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>955</v>
-      </c>
-      <c r="I18" s="7">
-        <v>663804</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1960</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1371465</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3158,8 +2813,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD629A87-CDAD-4CAA-AF6D-ED7A298AE72F}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB95A66F-3C62-43C1-90AD-CCB565102EB3}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3175,7 +2830,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3276,88 +2931,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2905</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="I4" s="7">
+        <v>4450</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="N4" s="7">
+        <v>7354</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>51755</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="I5" s="7">
+        <v>57615</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>160</v>
+      </c>
+      <c r="N5" s="7">
+        <v>109371</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,147 +3033,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="D6" s="7">
+        <v>54660</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="I6" s="7">
+        <v>62065</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>170</v>
+      </c>
+      <c r="N6" s="7">
+        <v>116725</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="D7" s="7">
-        <v>4450</v>
+        <v>48148</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>62</v>
+        <v>172</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="I7" s="7">
-        <v>2905</v>
+        <v>34652</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M7" s="7">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="N7" s="7">
-        <v>7354</v>
+        <v>82800</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>82</v>
+        <v>584</v>
       </c>
       <c r="D8" s="7">
-        <v>57615</v>
+        <v>384877</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H8" s="7">
-        <v>78</v>
+        <v>572</v>
       </c>
       <c r="I8" s="7">
-        <v>51755</v>
+        <v>401286</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M8" s="7">
-        <v>160</v>
+        <v>1156</v>
       </c>
       <c r="N8" s="7">
-        <v>109371</v>
+        <v>786163</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3515,153 +3188,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>88</v>
+        <v>655</v>
       </c>
       <c r="D9" s="7">
-        <v>62065</v>
+        <v>433025</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>82</v>
+        <v>621</v>
       </c>
       <c r="I9" s="7">
-        <v>54660</v>
+        <v>435938</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>170</v>
+        <v>1276</v>
       </c>
       <c r="N9" s="7">
-        <v>116725</v>
+        <v>868963</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>34652</v>
+        <v>9195</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H10" s="7">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="I10" s="7">
-        <v>48148</v>
+        <v>19520</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="N10" s="7">
-        <v>82800</v>
+        <v>28715</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>572</v>
+        <v>215</v>
       </c>
       <c r="D11" s="7">
-        <v>401286</v>
+        <v>143465</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H11" s="7">
-        <v>584</v>
+        <v>220</v>
       </c>
       <c r="I11" s="7">
-        <v>384877</v>
+        <v>152157</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M11" s="7">
-        <v>1156</v>
+        <v>435</v>
       </c>
       <c r="N11" s="7">
-        <v>786163</v>
+        <v>295622</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>202</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,153 +3343,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>621</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7">
-        <v>435938</v>
+        <v>152660</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>655</v>
+        <v>248</v>
       </c>
       <c r="I12" s="7">
-        <v>433025</v>
+        <v>171677</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1276</v>
+        <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>868963</v>
+        <v>324337</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="D13" s="7">
-        <v>19520</v>
+        <v>60248</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H13" s="7">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="I13" s="7">
-        <v>9195</v>
+        <v>58621</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M13" s="7">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="N13" s="7">
-        <v>28715</v>
+        <v>118869</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>877</v>
+      </c>
+      <c r="D14" s="7">
+        <v>580097</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H14" s="7">
+        <v>874</v>
+      </c>
+      <c r="I14" s="7">
+        <v>611060</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1751</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1191156</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="D14" s="7">
-        <v>152157</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H14" s="7">
-        <v>215</v>
-      </c>
-      <c r="I14" s="7">
-        <v>143465</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="M14" s="7">
-        <v>435</v>
-      </c>
-      <c r="N14" s="7">
-        <v>295622</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,216 +3498,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>248</v>
+        <v>965</v>
       </c>
       <c r="D15" s="7">
-        <v>171677</v>
+        <v>640345</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>228</v>
+        <v>957</v>
       </c>
       <c r="I15" s="7">
-        <v>152660</v>
+        <v>669681</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>476</v>
+        <v>1922</v>
       </c>
       <c r="N15" s="7">
-        <v>324337</v>
+        <v>1310025</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>83</v>
-      </c>
-      <c r="D16" s="7">
-        <v>58621</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H16" s="7">
-        <v>88</v>
-      </c>
-      <c r="I16" s="7">
-        <v>60248</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M16" s="7">
-        <v>171</v>
-      </c>
-      <c r="N16" s="7">
-        <v>118869</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>874</v>
-      </c>
-      <c r="D17" s="7">
-        <v>611059</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="H17" s="7">
-        <v>877</v>
-      </c>
-      <c r="I17" s="7">
-        <v>580097</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1751</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1191156</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>957</v>
-      </c>
-      <c r="D18" s="7">
-        <v>669680</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>965</v>
-      </c>
-      <c r="I18" s="7">
-        <v>640345</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1922</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1310025</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4047,8 +3564,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE281BD2-2902-4B7A-B911-4DF17C946BB3}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BE3A25-A14D-4413-9F5C-E7253EE05B94}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4064,7 +3581,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4165,88 +3682,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1206</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>223</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>224</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>626</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>224</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>227</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1832</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5339</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>231</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>232</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="I5" s="7">
+        <v>8808</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>232</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="N5" s="7">
+        <v>14147</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,147 +3784,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="D6" s="7">
+        <v>6545</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="I6" s="7">
+        <v>9434</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="N6" s="7">
+        <v>15979</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>572</v>
+        <v>4605</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>239</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>1212</v>
+        <v>3312</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>240</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>241</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N7" s="7">
-        <v>1785</v>
+        <v>7917</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="D8" s="7">
-        <v>8284</v>
+        <v>61633</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>248</v>
       </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="I8" s="7">
-        <v>5362</v>
+        <v>87937</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>251</v>
       </c>
       <c r="M8" s="7">
-        <v>21</v>
+        <v>218</v>
       </c>
       <c r="N8" s="7">
-        <v>13645</v>
+        <v>149570</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,129 +3939,129 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="D9" s="7">
-        <v>8856</v>
+        <v>66238</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="I9" s="7">
-        <v>6574</v>
+        <v>91249</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>24</v>
+        <v>233</v>
       </c>
       <c r="N9" s="7">
-        <v>15430</v>
+        <v>157487</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>3224</v>
+        <v>1349</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>4670</v>
+        <v>1406</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M10" s="7">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>7894</v>
+        <v>2754</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="D11" s="7">
-        <v>84758</v>
+        <v>26182</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="H11" s="7">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="I11" s="7">
-        <v>61339</v>
+        <v>29503</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>264</v>
@@ -4535,22 +4070,22 @@
         <v>265</v>
       </c>
       <c r="L11" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="M11" s="7">
+        <v>80</v>
+      </c>
+      <c r="N11" s="7">
+        <v>55687</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="M11" s="7">
-        <v>218</v>
-      </c>
-      <c r="N11" s="7">
-        <v>146097</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,153 +4094,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="D12" s="7">
-        <v>87982</v>
+        <v>27531</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="I12" s="7">
-        <v>66009</v>
+        <v>30909</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>233</v>
+        <v>84</v>
       </c>
       <c r="N12" s="7">
-        <v>153991</v>
+        <v>58441</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>1442</v>
+        <v>7160</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>271</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>1398</v>
+        <v>5343</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>272</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>273</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M13" s="7">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="N13" s="7">
-        <v>2839</v>
+        <v>12503</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="D14" s="7">
-        <v>28146</v>
+        <v>93154</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>16</v>
+        <v>280</v>
       </c>
       <c r="H14" s="7">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="I14" s="7">
-        <v>25942</v>
+        <v>126249</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>283</v>
       </c>
       <c r="M14" s="7">
-        <v>80</v>
+        <v>319</v>
       </c>
       <c r="N14" s="7">
-        <v>54089</v>
+        <v>219403</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4714,216 +4249,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="D15" s="7">
-        <v>29588</v>
+        <v>100314</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="I15" s="7">
-        <v>27340</v>
+        <v>131592</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>84</v>
+        <v>341</v>
       </c>
       <c r="N15" s="7">
-        <v>56928</v>
+        <v>231906</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>10</v>
-      </c>
-      <c r="D16" s="7">
-        <v>5238</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H16" s="7">
-        <v>12</v>
-      </c>
-      <c r="I16" s="7">
-        <v>7280</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="M16" s="7">
-        <v>22</v>
-      </c>
-      <c r="N16" s="7">
-        <v>12518</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>178</v>
-      </c>
-      <c r="D17" s="7">
-        <v>121187</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H17" s="7">
-        <v>141</v>
-      </c>
-      <c r="I17" s="7">
-        <v>92643</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="M17" s="7">
-        <v>319</v>
-      </c>
-      <c r="N17" s="7">
-        <v>213830</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>188</v>
-      </c>
-      <c r="D18" s="7">
-        <v>126425</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>153</v>
-      </c>
-      <c r="I18" s="7">
-        <v>99923</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>341</v>
-      </c>
-      <c r="N18" s="7">
-        <v>226348</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
